--- a/France/3_Comptabilite_Et_Fiscalite/8_Fiscalite/3_Autres_Impots_Taxes/1_Taxes_Liees_Aux_Salaires/2_Taxe_Apprentissage/1_Formulaire_2485_SD/2485_SD.xlsx
+++ b/France/3_Comptabilite_Et_Fiscalite/8_Fiscalite/3_Autres_Impots_Taxes/1_Taxes_Liees_Aux_Salaires/2_Taxe_Apprentissage/1_Formulaire_2485_SD/2485_SD.xlsx
@@ -7,15 +7,752 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="T_A_2485_SD" sheetId="1" r:id="rId1"/>
+    <sheet name="T_A_Form_2485_SD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="244">
+  <si>
+    <t>BORDEREAU DE VERSEMENT / TAXE D’APPRENTISSAGE ET CONTRIBUTION SUPPLÉMENTAIRE À L’APPRENTISSAGE / PARTICIPATION À LA FORMATION PROFESSIONNELLE CONTINUE / PARTICIPATION DES EMPLOYEURS À L’EFFORT DE CONSTRUCTION / PARTICIPATION DES EMPLOYEURS À L’EFFORT DE CONSTRUCTION AGRICOLE</t>
+  </si>
+  <si>
+    <t>Ce bordereau, accompagné de votre paiement, est à remettre à votre service des impôts des entreprises au plus tard le 30 avril 2019, si vous n’avez pas acquitté ces taxes auprès des organismes collecteurs agréés ou habilités avant le 1er mars 2019 ou, pour la participation à l’effort de construction, avant le 31 décembre de l’année précédente. Les sommes restant dues à compter de ces dates doivent être majorées1 du montant de l’insuffisance de paiement ou, pour la participation des employeurs ou des employeurs agricoles à l’effort de construction, soumise à une cotisation au taux de 2 %. Impact de la loi n°2018-771 du 5 septembre 2018 dite Loi Avenir Professionnel Le bordereau de versement peut également être utilisé tout au long de l’année 2019 pour reverser les fonds consacrés au compte personnel de formation et non utilisés au 1er janvier 2019 (Article 37-IV de la loi).</t>
+  </si>
+  <si>
+    <t>Une fiche d’aide au calcul est à votre disposition au dos de ce bordereau de versement.</t>
+  </si>
+  <si>
+    <t>DÉNOMINATION DE L’ENTREPRISE</t>
+  </si>
+  <si>
+    <t>ADRESSE</t>
+  </si>
+  <si>
+    <t>N° SIREN</t>
+  </si>
+  <si>
+    <t>Taxe d’apprentissage et Contribution supplémentaire à l’apprentissage pour les rémunérations versées en 2018 :</t>
+  </si>
+  <si>
+    <t>(case S de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R 17 : 0669)</t>
+  </si>
+  <si>
+    <t>(case T de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R 17 : 0709)</t>
+  </si>
+  <si>
+    <t>(case K de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R 17 : 0668)</t>
+  </si>
+  <si>
+    <t>(case L de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R 17 : 0699)</t>
+  </si>
+  <si>
+    <t>('1') En application des articles 235 bis, 235 ter KC, 235 ter KK, 1599 ter I et 1609 quinvicies du code général des impôts et des articles L6323-13 et L6331-30 du code du travail</t>
+  </si>
+  <si>
+    <t>(case G de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R 17 : 0667)</t>
+  </si>
+  <si>
+    <t>(code R 17 : 0689)</t>
+  </si>
+  <si>
+    <t>(case H de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(case O de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R17 : 0664)</t>
+  </si>
+  <si>
+    <t>(case P de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R 17 : 0679)</t>
+  </si>
+  <si>
+    <t>TOTAL À VERSER :</t>
+  </si>
+  <si>
+    <t>Participation à la formation professionnelle continue pour les rémunérations versées en 2018 :</t>
+  </si>
+  <si>
+    <t>(case K1 de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R 17 : A531)</t>
+  </si>
+  <si>
+    <t>(case K2 de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R 17 : A769)</t>
+  </si>
+  <si>
+    <t>(case H1 de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R 17 : A534)</t>
+  </si>
+  <si>
+    <t>(case H2 de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R 17 : A919)</t>
+  </si>
+  <si>
+    <t>('-') Montant restant dû au titre de la participation au financement du congé individuel de formation =</t>
+  </si>
+  <si>
+    <t>('-') Montant restant dû au titre du plan de formation =</t>
+  </si>
+  <si>
+    <t>('-') Montant restant dû au titre du financement du fonds paritaire de sécurisation des parcours professionnels =</t>
+  </si>
+  <si>
+    <t>('-') Montant restant dû au titre de la taxe d’apprentissage (hors fraction régionale pour l'apprentissage et hors quota) =</t>
+  </si>
+  <si>
+    <t>('-') Montant restant dû au titre du quota =</t>
+  </si>
+  <si>
+    <t>('-') Montant restant dû au titre de la fraction régionale pour l’apprentissage =</t>
+  </si>
+  <si>
+    <t>('-') Montant restant dû au titre de la contribution supplémentaire à l’apprentissage =</t>
+  </si>
+  <si>
+    <t>(case N1 de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R 17 : A532)</t>
+  </si>
+  <si>
+    <t>Majoration de 100 % =</t>
+  </si>
+  <si>
+    <t>(case N2 de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R 17 : A799)</t>
+  </si>
+  <si>
+    <t>('-') Montant restant dû au titre du financement des actions de professionnalisation =</t>
+  </si>
+  <si>
+    <t>(case E1 de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R 17 : A533)</t>
+  </si>
+  <si>
+    <t>(case E2 de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R 17 : A909)</t>
+  </si>
+  <si>
+    <t>('-') Montant restant dû au titre du financement du compte personnel de formation ….………...……. =</t>
+  </si>
+  <si>
+    <t>(case Q1 de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R 17 : A535)</t>
+  </si>
+  <si>
+    <t>(case Q2 de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R 17 : A899)</t>
+  </si>
+  <si>
+    <t>('-') Montant restant dû au titre du financement des congés individuels de formation des titulaires de contrat à durée déterminée</t>
+  </si>
+  <si>
+    <t>(case T1 de l'aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R17 : A532)</t>
+  </si>
+  <si>
+    <t>(case T2 de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>('-') Montant restant dû des sommes dues par les entreprises de 50 salariés en cas d'absence d'entretien professionnel</t>
+  </si>
+  <si>
+    <t>(case W1 de l'aide au calcul)</t>
+  </si>
+  <si>
+    <t>(code R17 : A535)</t>
+  </si>
+  <si>
+    <t>(case W2 de l’aide au calcul)</t>
+  </si>
+  <si>
+    <t>Reversement des fonds consacrés au financement du compte personnel de formation et non utilisés au 1er janvier 2019 :</t>
+  </si>
+  <si>
+    <t>('-') Montant à reverser =</t>
+  </si>
+  <si>
+    <t>Cotisation due au titre de la participation des employeurs à l’effort de construction pour les rémunérations versées en 2017 :</t>
+  </si>
+  <si>
+    <t>('-') Assiette de la cotisation due (case N de l’aide au calcul) =</t>
+  </si>
+  <si>
+    <t>TOTAL À VERSER : Montant dû : assiette de la cotisation due X 2 % =</t>
+  </si>
+  <si>
+    <t>(code R17 : Y156)</t>
+  </si>
+  <si>
+    <t>Cotisation due au titre de la participation des employeurs agricoles à l’effort de construction pour les rémunérations versées en 2017 :</t>
+  </si>
+  <si>
+    <t>TOTAL À VERSER : Montant dû de la cotisation due X 2 %  =</t>
+  </si>
+  <si>
+    <t>L’APPOSITION DU CACHET DU SERVICE DES IMPÔTS VAUT RÉCÉPISSÉ DE PAIEMENT</t>
+  </si>
+  <si>
+    <t>FICHE D’AIDE AU CALCUL</t>
+  </si>
+  <si>
+    <t>TAXE D’APPRENTISSAGE POUR LES RÉMUNÉRATIONS VERSÉES EN 2018</t>
+  </si>
+  <si>
+    <t>Rémunérations brutes versées par les établissements situés</t>
+  </si>
+  <si>
+    <t>dans les départements métropolitains (à l’exception du BasRhin du Haut-Rhin et de la Moselle) et dans les départements d'outre-mer</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>dans les départements du Bas-Rhin, du Haut-Rhin et de la Moselle</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Montants bruts de la taxe d'apprentissage y compris fraction régionale pour l'apprentissage</t>
+  </si>
+  <si>
+    <t>A x 0,68 %</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B x 0,44 %</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Fraction régionale pour l'apprentissage</t>
+  </si>
+  <si>
+    <t>(C+D) X 51 %</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Versements libératoires au titre de la fraction régionale pour l’apprentissage</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>MONTANT RESTANT À VERSER AU TITRE DE LA FRACTION RÉGIONALE POUR L’APPRENTISSAGE</t>
+  </si>
+  <si>
+    <t>('= E – F')</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>MONTANT DE LA MAJORATION DE LA FRACTION RÉGIONALE POUR L’APPRENTISSAGE</t>
+  </si>
+  <si>
+    <t>('= G')</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Montant dû au titre du Quota de la Taxe d’apprentissage</t>
+  </si>
+  <si>
+    <t>( C + D) X 26%</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Dépenses libératoires versées au titre du quota de la taxe d’apprentissage à un organisme collecteur et autres dépenses</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>MONTANT RESTANT DÛ AU TITRE AU TITRE DU QUOTA DE LA TAXE D’APPRENTISSAGE</t>
+  </si>
+  <si>
+    <t>('= I – J (2)')</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>MONTANT DE LA MAJORATION DU QUOTA DE LA TAXE D’APPRENTISSAGE</t>
+  </si>
+  <si>
+    <t>(' =K')</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Montant dû au titre de la fraction de la taxe d’apprentissage hors fraction régionale et hors quota</t>
+  </si>
+  <si>
+    <t>( C + D ) - E - I</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Dépenses libératoires versées au titre de la fraction de la taxe d’apprentissage hors fraction régionale et hors quota à un organisme collecteur et autres dépenses</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>MONTANT RESTANT DÛ AU TITRE DE LA FRACTION DE LA TAXE D’APPRENTISSAGE HORS QUOTA ET HORS FRACTION RÉGIONALE</t>
+  </si>
+  <si>
+    <t>(' = Q – R (2)')</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>MONTANT DE LA MAJORATION DE LA FRACTION DE LA TAXE D’APPRENTISSAGE HORS QUOTA ET HORS FRACTION RÉGIONALE</t>
+  </si>
+  <si>
+    <t>('= S')</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>('2') Porter si la différence est négative ou nulle.</t>
+  </si>
+  <si>
+    <t>CONTRIBUTION SUPPLÉMENTAIRE A L’APPRENTISSAGE POUR LES RÉMUNÉRATIONS VERSÉES EN 2018</t>
+  </si>
+  <si>
+    <t>Contribution supplémentaire à l’apprentissage (CSA) due par l’employeur</t>
+  </si>
+  <si>
+    <t>('[A + ( B X 52 %)] X taux CSA(3)(M)')</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Montant du versement au titre de la CSA effectué à un organisme collecteur</t>
+  </si>
+  <si>
+    <t>MONTANT RESTANT DÛ AU TITRE DE LA CSA</t>
+  </si>
+  <si>
+    <t>(' = M – N')</t>
+  </si>
+  <si>
+    <t>MONTANT DE LA MAJORATION DE LA CSA</t>
+  </si>
+  <si>
+    <t>('= R')</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>('3') La contribution supplémentaire à l'apprentissage (CSA) prévue à l'article 1609 quinvicies du code général des impôts est due par les entreprises d’au moins 250 salariés redevables de la taxe d’apprentissage lorsque le nombre de salariés en contrats d’alternance (professionnalisation ou apprentissage) ou assimilés (VIE, CIFRE) est inférieur à un pourcentage de l'effectif annuel moyen.</t>
+  </si>
+  <si>
+    <t>Pourcentage de salariés sous contrat de professionnalisation ou d'apprentissage et de jeune en VIE ou CIFRE</t>
+  </si>
+  <si>
+    <t>Pourcentage inférieur à 1% de l’effectif annuel moyen de l'entreprise</t>
+  </si>
+  <si>
+    <t>Pourcentage au moins égal à 1 % et inférieur à 2 %</t>
+  </si>
+  <si>
+    <t>Pourcentage au moins égal à 2% et inférieur à 3%</t>
+  </si>
+  <si>
+    <t>Pourcentage au moins égal à 3% et inférieur à 4%</t>
+  </si>
+  <si>
+    <t>Effectif annuel moyen de l'entreprise inférieur ou égal à 2 000 salariés</t>
+  </si>
+  <si>
+    <t>Taux CSA</t>
+  </si>
+  <si>
+    <t>0,40% (0,208% pour le Haut-Rhin, le BasRhin et la Moselle)</t>
+  </si>
+  <si>
+    <t>0,2 % (0,104 % pour le Haut-Rhin, le Bas-Rhin et la Moselle)</t>
+  </si>
+  <si>
+    <t>0,10% (0,052% pour le Haut-Rhin, le Bas-Rhin et la Moselle)</t>
+  </si>
+  <si>
+    <t>0,05% (0,026% pour le Haut-Rhin, le Bas-Rhin et la Moselle)</t>
+  </si>
+  <si>
+    <t>Effectif annuel moyen de l'entreprise supérieur à 2 000 salariés</t>
+  </si>
+  <si>
+    <t>0,60% (0,312% pour le Haut-Rhin, le BasRhin et la Moselle)</t>
+  </si>
+  <si>
+    <t>PARTICIPATION A LA FORMATION PROFESSIONNELLE CONTINUE DES EMPLOYEURS OCCUPANT MOINS DE ONZE SALARIES POUR LES RÉMUNÉRATIONS VERSÉES EN 2018</t>
+  </si>
+  <si>
+    <t>Montant total des rémunérations versées au cours de l’année ou de la période considérée</t>
+  </si>
+  <si>
+    <t>(case A x 0,55 %)</t>
+  </si>
+  <si>
+    <t>Montant du versement incombant à l’employeur</t>
+  </si>
+  <si>
+    <t>Actions de professionnalisation</t>
+  </si>
+  <si>
+    <t>Montant de la participation affectée au financement des actions de professionnalisation</t>
+  </si>
+  <si>
+    <t>(case A x 0,15 %)</t>
+  </si>
+  <si>
+    <t>Montant du versement déjà effectué à l’organisme collecteur agréé au titre du financement des actions de professionnalisation</t>
+  </si>
+  <si>
+    <t>INSUFFISANCE DE VERSEMENT</t>
+  </si>
+  <si>
+    <t>(' = C – D (4)')</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>MONTANT DE LA MAJORATION</t>
+  </si>
+  <si>
+    <t>('= E1')</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>Plan de formation</t>
+  </si>
+  <si>
+    <t>Montant de la participation affectée au financement du plan de formation</t>
+  </si>
+  <si>
+    <t>(case A x 0,40 %)</t>
+  </si>
+  <si>
+    <t>Montant du versement effectué à l’organisme collecteur agréé au titre du financement du plan de formation</t>
+  </si>
+  <si>
+    <t>('= (F-G)(4)')</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>('= H1')</t>
+  </si>
+  <si>
+    <t>Financement des congés individuels de formation des titulaires de CDD</t>
+  </si>
+  <si>
+    <t>Montant de la participation au titre du financement des congés individuels de formation des titulaires de CDD</t>
+  </si>
+  <si>
+    <t>Montant déjà effectué au titre du financement des congés individuels de formation des titulaires de CDD</t>
+  </si>
+  <si>
+    <t>MONTANT RESTANT DÛ AU TITRE DU FINANCEMENT DES CONGÉS INDIVIDUELS DE FORMATION DES TITULAIRES DE CDD</t>
+  </si>
+  <si>
+    <t>('= R-S')</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>('= T1')</t>
+  </si>
+  <si>
+    <t>MONTANT MAJORÉ</t>
+  </si>
+  <si>
+    <t>('4') Porter si la différence est négative ou nulle.</t>
+  </si>
+  <si>
+    <t>PARTICIPATION A LA FORMATION PROFESSIONNELLE CONTINUE DES EMPLOYEURS OCCUPANT AU MOINS ONZE SALARIES POUR LES RÉMUNÉRATIONS VERSÉES EN 2018</t>
+  </si>
+  <si>
+    <t>Taux de la participation ('5')</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>(case A x A1)</t>
+  </si>
+  <si>
+    <t>(' = C – D( 6)')</t>
+  </si>
+  <si>
+    <t>MONTANT DE L MAJORATION</t>
+  </si>
+  <si>
+    <t>('= (F-G) (6)')</t>
+  </si>
+  <si>
+    <t>Fonds paritaire de sécurisation des parcours professionnels (FSPP)</t>
+  </si>
+  <si>
+    <t>Montant de la participation au titre du financement du FSPP</t>
+  </si>
+  <si>
+    <t>Montant de versement déjà effectué à l'organisme collecteur agréé au titre du financement FSPP</t>
+  </si>
+  <si>
+    <t>(' = I - J')</t>
+  </si>
+  <si>
+    <t>('= K1')</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>Congé individuel de formation (CIF)</t>
+  </si>
+  <si>
+    <t>Montant de la participation au titre du financement du CIF</t>
+  </si>
+  <si>
+    <t>N1</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>Montant de versement déjà effectué à l'organisme collecteur agréé au titre du CIF</t>
+  </si>
+  <si>
+    <t>(' = L - M ’)</t>
+  </si>
+  <si>
+    <t>(' = N1 ')</t>
+  </si>
+  <si>
+    <t>Compte personnel de formation (CPF)</t>
+  </si>
+  <si>
+    <t>Montant de la participation au titre du financement du CPF</t>
+  </si>
+  <si>
+    <t>Montant déjà effectué à l'organisme collecteur agréé au titre du CPF</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>(' = O - P ')</t>
+  </si>
+  <si>
+    <t>(' = Q1 ')</t>
+  </si>
+  <si>
+    <t>('5') Le taux varie selon l'entreprise (effectif, accroissement de l'effectif). Des taux spécifiques sont prévus en cas de franchissement de seuil. Pour plus de précisions, il convient de se reporter au BOI-TPS-FPC-30. ('6') Porter si la différence est négative ou nulle.</t>
+  </si>
+  <si>
+    <t>(' = R - S’)</t>
+  </si>
+  <si>
+    <t>(' = T1 ')</t>
+  </si>
+  <si>
+    <t>Entreprises de 50 salariés en cas d'absence d'entretien professionnel</t>
+  </si>
+  <si>
+    <t>Montant dû au titre de l'absence d'entretien professionnel</t>
+  </si>
+  <si>
+    <t>Montant du reversement déjà effectué à l'OPCA</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>('  = U – V ')</t>
+  </si>
+  <si>
+    <t>(' = W1 ')</t>
+  </si>
+  <si>
+    <t>W1</t>
+  </si>
+  <si>
+    <t>W2</t>
+  </si>
+  <si>
+    <t>COTISATION PERÇUE AU TITRE DE LA PARTICIPATION DES EMPLOYEURS A L’EFFORT DE CONSTRUCTION POUR LES RÉMUNÉRATIONS VERSÉES EN 2017</t>
+  </si>
+  <si>
+    <t>Montant à investir dans la participation (case A x 0,45 %)</t>
+  </si>
+  <si>
+    <t>Montant de la réduction :</t>
+  </si>
+  <si>
+    <t>Somme nette à investir dans la participation 2018 (case B – case C, D ou E)</t>
+  </si>
+  <si>
+    <t>Remboursements et aliénations d’investissements antérieurs (intervenus au cours des 3 mois précédant la période d’investissement ou des 9 premiers mois de la période)</t>
+  </si>
+  <si>
+    <t>Total des investissements à réaliser (case E1 + case F)</t>
+  </si>
+  <si>
+    <t>Sommes :</t>
+  </si>
+  <si>
+    <t>('-') investies au cours de la période d’investissement</t>
+  </si>
+  <si>
+    <t>('-') pour les employeurs ayant franchi le seuil de 20 salariés en 2012 (case B x 25%)</t>
+  </si>
+  <si>
+    <t>('-') pour les employeurs ayant franchi le seuil de 20 salariés en 2013 (case B x 50%)</t>
+  </si>
+  <si>
+    <t>('-') pour les employeurs ayant franchi le seuil de 20 salariés en 2014 (case B x 75%)</t>
+  </si>
+  <si>
+    <t>('-') réinvesties</t>
+  </si>
+  <si>
+    <t>Investissements excédentaires antérieurs</t>
+  </si>
+  <si>
+    <t>Total des investissements réalisés (case H + case I + case J)</t>
+  </si>
+  <si>
+    <t>Investissements excédentaires (case K – case G)</t>
+  </si>
+  <si>
+    <t>Insuffisance d’investissement (case G – case K)</t>
+  </si>
+  <si>
+    <t>Assiette de la cotisation de 2 % (case M x (10 000/45)</t>
+  </si>
+  <si>
+    <t>MONTANT MAJORÉ N x 2 %</t>
+  </si>
+  <si>
+    <t>COTISATION PERÇUE AU TITRE DE LA PARTICIPATION DES EMPLOYEURS AGRICOLES A L’EFFORT DE CONSTRUCTION POUR LES RÉMUNÉRATIONS VERSÉES EN 2017</t>
+  </si>
+  <si>
+    <t>Montant à investir dans la participation (case A x 0,45%)</t>
+  </si>
+  <si>
+    <t>Somme nette à investir dans la participation dans la participation 2018 (case B – case C, D ou E)</t>
+  </si>
+  <si>
+    <t>Remboursements de prêts antérieurs</t>
+  </si>
+  <si>
+    <t>Insuffisance d’investissement (case G – case K</t>
+  </si>
+  <si>
+    <t>MONTANT MAJORÉ N x 2%</t>
+  </si>
+  <si>
+    <t>('-') pour les employeurs ayant franchi le seuil de 50 salariés agricoles en 2012 (case B x 25%)</t>
+  </si>
+  <si>
+    <t>('-') pour les employeurs ayant franchi le seuil de 50 salariés agricoles en 2013 (case B x 50%)</t>
+  </si>
+  <si>
+    <t>('-') pour les employeurs ayant franchi le seuil de 50 salariés agricoles en 2014 (case B x 75%)</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +760,71 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -40,12 +832,349 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,14 +1479,5118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="A241" sqref="A241:J241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+    </row>
+    <row r="4" spans="1:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+    </row>
+    <row r="5" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+    </row>
+    <row r="6" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="49"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="49"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="49"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="41"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="41"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="40"/>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="41"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+    </row>
+    <row r="23" spans="1:16" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="40"/>
+      <c r="O23" s="40"/>
+      <c r="P23" s="41"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="44"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="40"/>
+      <c r="P25" s="41"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="44"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="41"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="44"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+      <c r="N30" s="40"/>
+      <c r="O30" s="40"/>
+      <c r="P30" s="41"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="44"/>
+    </row>
+    <row r="32" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
+      <c r="K32" s="49"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="49"/>
+      <c r="O32" s="49"/>
+      <c r="P32" s="49"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="58"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="48"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="58"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="47"/>
+      <c r="N36" s="47"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="48"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:16" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="56"/>
+      <c r="J38" s="57"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="57"/>
+      <c r="M38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="58"/>
+    </row>
+    <row r="39" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
+      <c r="D39" s="47"/>
+      <c r="E39" s="47"/>
+      <c r="F39" s="47"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="48"/>
+    </row>
+    <row r="40" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="56"/>
+      <c r="J40" s="57"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="57"/>
+      <c r="M40" s="57"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="58"/>
+    </row>
+    <row r="41" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="47"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="J41" s="47"/>
+      <c r="K41" s="47"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="47"/>
+      <c r="N41" s="47"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="48"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="59"/>
+      <c r="B42" s="59"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
+      <c r="J42" s="59"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="59"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="41"/>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="29"/>
+    </row>
+    <row r="46" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="56"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="58"/>
+    </row>
+    <row r="47" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="47"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="47"/>
+      <c r="K47" s="47"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="47"/>
+      <c r="O47" s="47"/>
+      <c r="P47" s="48"/>
+    </row>
+    <row r="48" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="58"/>
+    </row>
+    <row r="49" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
+      <c r="D49" s="47"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="48"/>
+    </row>
+    <row r="50" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="58"/>
+    </row>
+    <row r="52" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="48"/>
+    </row>
+    <row r="53" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="56"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="58"/>
+    </row>
+    <row r="54" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="47"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="47"/>
+      <c r="O54" s="47"/>
+      <c r="P54" s="48"/>
+    </row>
+    <row r="55" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="56"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
+      <c r="L56" s="57"/>
+      <c r="M56" s="57"/>
+      <c r="N56" s="57"/>
+      <c r="O56" s="57"/>
+      <c r="P56" s="58"/>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
+      <c r="D57" s="47"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="47"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57" s="47"/>
+      <c r="K57" s="47"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="47"/>
+      <c r="O57" s="47"/>
+      <c r="P57" s="48"/>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="56"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="57"/>
+      <c r="L58" s="57"/>
+      <c r="M58" s="57"/>
+      <c r="N58" s="57"/>
+      <c r="O58" s="57"/>
+      <c r="P58" s="58"/>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47"/>
+      <c r="F59" s="47"/>
+      <c r="G59" s="47"/>
+      <c r="H59" s="48"/>
+      <c r="I59" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="J59" s="47"/>
+      <c r="K59" s="47"/>
+      <c r="L59" s="47"/>
+      <c r="M59" s="47"/>
+      <c r="N59" s="47"/>
+      <c r="O59" s="47"/>
+      <c r="P59" s="48"/>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="56"/>
+      <c r="J61" s="57"/>
+      <c r="K61" s="57"/>
+      <c r="L61" s="57"/>
+      <c r="M61" s="57"/>
+      <c r="N61" s="57"/>
+      <c r="O61" s="57"/>
+      <c r="P61" s="58"/>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="47"/>
+      <c r="H62" s="48"/>
+      <c r="I62" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="J62" s="47"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="47"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="47"/>
+      <c r="O62" s="47"/>
+      <c r="P62" s="48"/>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="58"/>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
+      <c r="D64" s="47"/>
+      <c r="E64" s="47"/>
+      <c r="F64" s="47"/>
+      <c r="G64" s="47"/>
+      <c r="H64" s="48"/>
+      <c r="I64" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="J64" s="47"/>
+      <c r="K64" s="47"/>
+      <c r="L64" s="47"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="47"/>
+      <c r="O64" s="47"/>
+      <c r="P64" s="48"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" s="49"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="49"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="49"/>
+      <c r="H65" s="49"/>
+      <c r="I65" s="49"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="49"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="49"/>
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+    </row>
+    <row r="66" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="56"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="58"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="47"/>
+      <c r="G67" s="47"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="J67" s="47"/>
+      <c r="K67" s="47"/>
+      <c r="L67" s="47"/>
+      <c r="M67" s="47"/>
+      <c r="N67" s="47"/>
+      <c r="O67" s="47"/>
+      <c r="P67" s="48"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="57"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="58"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="47"/>
+      <c r="G69" s="47"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="47"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="47"/>
+      <c r="O69" s="47"/>
+      <c r="P69" s="48"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" s="49"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49"/>
+      <c r="D70" s="49"/>
+      <c r="E70" s="49"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="49"/>
+      <c r="H70" s="49"/>
+      <c r="I70" s="49"/>
+      <c r="J70" s="49"/>
+      <c r="K70" s="49"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="49"/>
+      <c r="O70" s="49"/>
+      <c r="P70" s="49"/>
+    </row>
+    <row r="71" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="56"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="57"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="58"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
+      <c r="D72" s="47"/>
+      <c r="E72" s="47"/>
+      <c r="F72" s="47"/>
+      <c r="G72" s="47"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="J72" s="47"/>
+      <c r="K72" s="47"/>
+      <c r="L72" s="47"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="47"/>
+      <c r="O72" s="47"/>
+      <c r="P72" s="48"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="57"/>
+      <c r="N73" s="57"/>
+      <c r="O73" s="57"/>
+      <c r="P73" s="58"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="47"/>
+      <c r="G74" s="47"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="J74" s="47"/>
+      <c r="K74" s="47"/>
+      <c r="L74" s="47"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="47"/>
+      <c r="O74" s="47"/>
+      <c r="P74" s="48"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" s="50"/>
+      <c r="B75" s="51"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="51"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="52"/>
+    </row>
+    <row r="76" spans="1:16" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="57"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="58"/>
+    </row>
+    <row r="77" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
+      <c r="D77" s="47"/>
+      <c r="E77" s="47"/>
+      <c r="F77" s="47"/>
+      <c r="G77" s="47"/>
+      <c r="H77" s="48"/>
+      <c r="I77" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="J77" s="47"/>
+      <c r="K77" s="47"/>
+      <c r="L77" s="47"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="47"/>
+      <c r="O77" s="47"/>
+      <c r="P77" s="48"/>
+    </row>
+    <row r="78" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="56"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="58"/>
+    </row>
+    <row r="79" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="48"/>
+      <c r="I79" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
+      <c r="P79" s="48"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" s="36"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="37"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="37"/>
+      <c r="K80" s="37"/>
+      <c r="L80" s="37"/>
+      <c r="M80" s="37"/>
+      <c r="N80" s="37"/>
+      <c r="O80" s="37"/>
+      <c r="P80" s="38"/>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A81" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="40"/>
+      <c r="K81" s="40"/>
+      <c r="L81" s="40"/>
+      <c r="M81" s="40"/>
+      <c r="N81" s="40"/>
+      <c r="O81" s="40"/>
+      <c r="P81" s="41"/>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A83" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B84" s="13"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="13"/>
+      <c r="F84" s="13"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="40"/>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="40"/>
+      <c r="O84" s="40"/>
+      <c r="P84" s="41"/>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A85" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" s="45"/>
+      <c r="C85" s="45"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="45"/>
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="45"/>
+      <c r="L85" s="45"/>
+      <c r="M85" s="45"/>
+      <c r="N85" s="45"/>
+      <c r="O85" s="45"/>
+      <c r="P85" s="45"/>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A88" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+      <c r="O88" s="40"/>
+      <c r="P88" s="41"/>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+      <c r="O89" s="40"/>
+      <c r="P89" s="41"/>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A90" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B90" s="43"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="43"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="J90" s="45"/>
+      <c r="K90" s="45"/>
+      <c r="L90" s="45"/>
+      <c r="M90" s="45"/>
+      <c r="N90" s="45"/>
+      <c r="O90" s="45"/>
+      <c r="P90" s="45"/>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="40"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+      <c r="O93" s="40"/>
+      <c r="P93" s="41"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A94" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="40"/>
+      <c r="L94" s="40"/>
+      <c r="M94" s="40"/>
+      <c r="N94" s="40"/>
+      <c r="O94" s="40"/>
+      <c r="P94" s="41"/>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A95" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B95" s="43"/>
+      <c r="C95" s="43"/>
+      <c r="D95" s="43"/>
+      <c r="E95" s="43"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="J95" s="45"/>
+      <c r="K95" s="45"/>
+      <c r="L95" s="45"/>
+      <c r="M95" s="45"/>
+      <c r="N95" s="45"/>
+      <c r="O95" s="45"/>
+      <c r="P95" s="45"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A97" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+      <c r="J97" s="7"/>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
+      <c r="P97" s="7"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A99" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
+      <c r="J99" s="7"/>
+      <c r="K99" s="7"/>
+      <c r="L99" s="7"/>
+      <c r="M99" s="7"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
+      <c r="P99" s="7"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A100" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B100" s="37"/>
+      <c r="C100" s="37"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="37"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="37"/>
+      <c r="L100" s="37"/>
+      <c r="M100" s="37"/>
+      <c r="N100" s="37"/>
+      <c r="O100" s="37"/>
+      <c r="P100" s="38"/>
+    </row>
+    <row r="101" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="L101" s="16"/>
+      <c r="M101" s="16"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="16"/>
+      <c r="P101" s="16"/>
+    </row>
+    <row r="102" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="15"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L102" s="15"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="15"/>
+      <c r="O102" s="15"/>
+      <c r="P102" s="15"/>
+    </row>
+    <row r="103" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B103" s="31"/>
+      <c r="C103" s="31"/>
+      <c r="D103" s="31"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="16"/>
+      <c r="P103" s="16"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A104" s="33"/>
+      <c r="B104" s="34"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="35"/>
+      <c r="F104" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="16"/>
+      <c r="P104" s="16"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A105" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L105" s="16"/>
+      <c r="M105" s="16"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="16"/>
+      <c r="P105" s="16"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A106" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16"/>
+      <c r="N106" s="16"/>
+      <c r="O106" s="16"/>
+      <c r="P106" s="16"/>
+    </row>
+    <row r="107" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B107" s="15"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="15"/>
+      <c r="P107" s="15"/>
+    </row>
+    <row r="108" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B108" s="15"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="6"/>
+      <c r="K108" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="L108" s="15"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="15"/>
+      <c r="P108" s="15"/>
+    </row>
+    <row r="109" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="6"/>
+      <c r="K109" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="6"/>
+    </row>
+    <row r="110" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="6"/>
+    </row>
+    <row r="111" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B111" s="5"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="O111" s="5"/>
+      <c r="P111" s="6"/>
+    </row>
+    <row r="112" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="5"/>
+      <c r="P112" s="6"/>
+    </row>
+    <row r="113" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" s="5"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="6"/>
+    </row>
+    <row r="114" spans="1:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B114" s="5"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="6"/>
+      <c r="K114" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L114" s="5"/>
+      <c r="M114" s="5"/>
+      <c r="N114" s="5"/>
+      <c r="O114" s="5"/>
+      <c r="P114" s="6"/>
+    </row>
+    <row r="115" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B115" s="5"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="6"/>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="5"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L116" s="5"/>
+      <c r="M116" s="5"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="5"/>
+      <c r="P116" s="6"/>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A118" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="7"/>
+      <c r="J118" s="7"/>
+      <c r="K118" s="7"/>
+      <c r="L118" s="7"/>
+      <c r="M118" s="7"/>
+      <c r="N118" s="7"/>
+      <c r="O118" s="7"/>
+      <c r="P118" s="7"/>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A120" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120" s="28"/>
+      <c r="C120" s="28"/>
+      <c r="D120" s="28"/>
+      <c r="E120" s="28"/>
+      <c r="F120" s="28"/>
+      <c r="G120" s="28"/>
+      <c r="H120" s="28"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="28"/>
+      <c r="K120" s="28"/>
+      <c r="L120" s="28"/>
+      <c r="M120" s="28"/>
+      <c r="N120" s="28"/>
+      <c r="O120" s="28"/>
+      <c r="P120" s="29"/>
+    </row>
+    <row r="121" spans="1:16" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121" s="15"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="15"/>
+      <c r="K121" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L121" s="15"/>
+      <c r="M121" s="15"/>
+      <c r="N121" s="15"/>
+      <c r="O121" s="15"/>
+      <c r="P121" s="15"/>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L122" s="5"/>
+      <c r="M122" s="5"/>
+      <c r="N122" s="5"/>
+      <c r="O122" s="5"/>
+      <c r="P122" s="6"/>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" s="5"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="5"/>
+      <c r="O123" s="5"/>
+      <c r="P123" s="6"/>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="5"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L124" s="5"/>
+      <c r="M124" s="5"/>
+      <c r="N124" s="5"/>
+      <c r="O124" s="5"/>
+      <c r="P124" s="6"/>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A126" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B126" s="19"/>
+      <c r="C126" s="19"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+      <c r="N126" s="19"/>
+      <c r="O126" s="19"/>
+      <c r="P126" s="20"/>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A127" s="21"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+      <c r="E127" s="22"/>
+      <c r="F127" s="22"/>
+      <c r="G127" s="22"/>
+      <c r="H127" s="22"/>
+      <c r="I127" s="22"/>
+      <c r="J127" s="22"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="22"/>
+      <c r="N127" s="22"/>
+      <c r="O127" s="22"/>
+      <c r="P127" s="23"/>
+    </row>
+    <row r="128" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="24"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="25"/>
+      <c r="K128" s="25"/>
+      <c r="L128" s="25"/>
+      <c r="M128" s="25"/>
+      <c r="N128" s="25"/>
+      <c r="O128" s="25"/>
+      <c r="P128" s="26"/>
+    </row>
+    <row r="130" spans="1:16" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="K130" s="15"/>
+      <c r="L130" s="15"/>
+      <c r="M130" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="N130" s="15"/>
+      <c r="O130" s="15"/>
+      <c r="P130" s="15"/>
+    </row>
+    <row r="131" spans="1:16" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" s="6"/>
+      <c r="C131" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E131" s="5"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H131" s="5"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K131" s="5"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N131" s="15"/>
+      <c r="O131" s="15"/>
+      <c r="P131" s="15"/>
+    </row>
+    <row r="132" spans="1:16" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B132" s="6"/>
+      <c r="C132" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E132" s="5"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H132" s="5"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K132" s="5"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="N132" s="15"/>
+      <c r="O132" s="15"/>
+      <c r="P132" s="15"/>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A134" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="17"/>
+      <c r="L134" s="17"/>
+      <c r="M134" s="17"/>
+      <c r="N134" s="17"/>
+      <c r="O134" s="17"/>
+      <c r="P134" s="17"/>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A135" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="16"/>
+      <c r="L135" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M135" s="13"/>
+      <c r="N135" s="13"/>
+      <c r="O135" s="13"/>
+      <c r="P135" s="14"/>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A136" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B136" s="13"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="G136" s="13"/>
+      <c r="H136" s="13"/>
+      <c r="I136" s="13"/>
+      <c r="J136" s="14"/>
+      <c r="K136" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L136" s="13"/>
+      <c r="M136" s="13"/>
+      <c r="N136" s="13"/>
+      <c r="O136" s="13"/>
+      <c r="P136" s="14"/>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B137" s="10"/>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="10"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10"/>
+      <c r="O137" s="10"/>
+      <c r="P137" s="11"/>
+    </row>
+    <row r="138" spans="1:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B138" s="5"/>
+      <c r="C138" s="5"/>
+      <c r="D138" s="5"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="G138" s="13"/>
+      <c r="H138" s="13"/>
+      <c r="I138" s="13"/>
+      <c r="J138" s="14"/>
+      <c r="K138" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L138" s="13"/>
+      <c r="M138" s="13"/>
+      <c r="N138" s="13"/>
+      <c r="O138" s="13"/>
+      <c r="P138" s="14"/>
+    </row>
+    <row r="139" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B139" s="15"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="15"/>
+      <c r="K139" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L139" s="15"/>
+      <c r="M139" s="15"/>
+      <c r="N139" s="15"/>
+      <c r="O139" s="15"/>
+      <c r="P139" s="15"/>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A140" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B140" s="16"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="G140" s="13"/>
+      <c r="H140" s="13"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L140" s="13"/>
+      <c r="M140" s="13"/>
+      <c r="N140" s="13"/>
+      <c r="O140" s="13"/>
+      <c r="P140" s="14"/>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A141" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B141" s="13"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="G141" s="13"/>
+      <c r="H141" s="13"/>
+      <c r="I141" s="13"/>
+      <c r="J141" s="14"/>
+      <c r="K141" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="L141" s="13"/>
+      <c r="M141" s="13"/>
+      <c r="N141" s="13"/>
+      <c r="O141" s="13"/>
+      <c r="P141" s="14"/>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B142" s="10"/>
+      <c r="C142" s="10"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="10"/>
+      <c r="L142" s="10"/>
+      <c r="M142" s="10"/>
+      <c r="N142" s="10"/>
+      <c r="O142" s="10"/>
+      <c r="P142" s="11"/>
+    </row>
+    <row r="143" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="15"/>
+      <c r="K143" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="L143" s="15"/>
+      <c r="M143" s="15"/>
+      <c r="N143" s="15"/>
+      <c r="O143" s="15"/>
+      <c r="P143" s="15"/>
+    </row>
+    <row r="144" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B144" s="5"/>
+      <c r="C144" s="5"/>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L144" s="13"/>
+      <c r="M144" s="13"/>
+      <c r="N144" s="13"/>
+      <c r="O144" s="13"/>
+      <c r="P144" s="14"/>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A145" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B145" s="13"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G145" s="13"/>
+      <c r="H145" s="13"/>
+      <c r="I145" s="13"/>
+      <c r="J145" s="14"/>
+      <c r="K145" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="L145" s="13"/>
+      <c r="M145" s="13"/>
+      <c r="N145" s="13"/>
+      <c r="O145" s="13"/>
+      <c r="P145" s="14"/>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A146" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G146" s="13"/>
+      <c r="H146" s="13"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="14"/>
+      <c r="K146" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="L146" s="13"/>
+      <c r="M146" s="13"/>
+      <c r="N146" s="13"/>
+      <c r="O146" s="13"/>
+      <c r="P146" s="14"/>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" s="10"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="10"/>
+      <c r="K147" s="10"/>
+      <c r="L147" s="10"/>
+      <c r="M147" s="10"/>
+      <c r="N147" s="10"/>
+      <c r="O147" s="10"/>
+      <c r="P147" s="11"/>
+    </row>
+    <row r="148" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L148" s="5"/>
+      <c r="M148" s="5"/>
+      <c r="N148" s="5"/>
+      <c r="O148" s="5"/>
+      <c r="P148" s="6"/>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" s="5"/>
+      <c r="C149" s="5"/>
+      <c r="D149" s="5"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5"/>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L149" s="5"/>
+      <c r="M149" s="5"/>
+      <c r="N149" s="5"/>
+      <c r="O149" s="5"/>
+      <c r="P149" s="6"/>
+    </row>
+    <row r="150" spans="1:16" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B150" s="5"/>
+      <c r="C150" s="5"/>
+      <c r="D150" s="5"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L150" s="5"/>
+      <c r="M150" s="5"/>
+      <c r="N150" s="5"/>
+      <c r="O150" s="5"/>
+      <c r="P150" s="6"/>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B151" s="5"/>
+      <c r="C151" s="5"/>
+      <c r="D151" s="5"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
+      <c r="N151" s="5"/>
+      <c r="O151" s="5"/>
+      <c r="P151" s="6"/>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A153" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="7"/>
+      <c r="J153" s="7"/>
+      <c r="K153" s="7"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="7"/>
+      <c r="N153" s="7"/>
+      <c r="O153" s="7"/>
+      <c r="P153" s="7"/>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B155" s="8"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="E155" s="8"/>
+      <c r="F155" s="8"/>
+      <c r="G155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="I155" s="8"/>
+      <c r="J155" s="8"/>
+      <c r="K155" s="8"/>
+      <c r="L155" s="8"/>
+      <c r="M155" s="8"/>
+      <c r="N155" s="8"/>
+      <c r="O155" s="8"/>
+      <c r="P155" s="8"/>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A156" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B156" s="13"/>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
+      <c r="H156" s="13"/>
+      <c r="I156" s="13"/>
+      <c r="J156" s="14"/>
+      <c r="K156" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L156" s="13"/>
+      <c r="M156" s="13"/>
+      <c r="N156" s="13"/>
+      <c r="O156" s="13"/>
+      <c r="P156" s="14"/>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A157" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B157" s="13"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
+      <c r="H157" s="13"/>
+      <c r="I157" s="13"/>
+      <c r="J157" s="14"/>
+      <c r="K157" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="L157" s="13"/>
+      <c r="M157" s="13"/>
+      <c r="N157" s="13"/>
+      <c r="O157" s="13"/>
+      <c r="P157" s="14"/>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A158" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="B158" s="13"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G158" s="13"/>
+      <c r="H158" s="13"/>
+      <c r="I158" s="13"/>
+      <c r="J158" s="14"/>
+      <c r="K158" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L158" s="13"/>
+      <c r="M158" s="13"/>
+      <c r="N158" s="13"/>
+      <c r="O158" s="13"/>
+      <c r="P158" s="14"/>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B159" s="10"/>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="10"/>
+      <c r="K159" s="10"/>
+      <c r="L159" s="10"/>
+      <c r="M159" s="10"/>
+      <c r="N159" s="10"/>
+      <c r="O159" s="10"/>
+      <c r="P159" s="11"/>
+    </row>
+    <row r="160" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B160" s="5"/>
+      <c r="C160" s="5"/>
+      <c r="D160" s="5"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L160" s="5"/>
+      <c r="M160" s="5"/>
+      <c r="N160" s="5"/>
+      <c r="O160" s="5"/>
+      <c r="P160" s="6"/>
+    </row>
+    <row r="161" spans="1:16" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B161" s="5"/>
+      <c r="C161" s="5"/>
+      <c r="D161" s="5"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="L161" s="5"/>
+      <c r="M161" s="5"/>
+      <c r="N161" s="5"/>
+      <c r="O161" s="5"/>
+      <c r="P161" s="6"/>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B162" s="5"/>
+      <c r="C162" s="5"/>
+      <c r="D162" s="5"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L162" s="5"/>
+      <c r="M162" s="5"/>
+      <c r="N162" s="5"/>
+      <c r="O162" s="5"/>
+      <c r="P162" s="6"/>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+      <c r="D163" s="5"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="L163" s="5"/>
+      <c r="M163" s="5"/>
+      <c r="N163" s="5"/>
+      <c r="O163" s="5"/>
+      <c r="P163" s="6"/>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="B164" s="10"/>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="10"/>
+      <c r="K164" s="10"/>
+      <c r="L164" s="10"/>
+      <c r="M164" s="10"/>
+      <c r="N164" s="10"/>
+      <c r="O164" s="10"/>
+      <c r="P164" s="11"/>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B165" s="5"/>
+      <c r="C165" s="5"/>
+      <c r="D165" s="5"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L165" s="5"/>
+      <c r="M165" s="5"/>
+      <c r="N165" s="5"/>
+      <c r="O165" s="5"/>
+      <c r="P165" s="6"/>
+    </row>
+    <row r="166" spans="1:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B166" s="5"/>
+      <c r="C166" s="5"/>
+      <c r="D166" s="5"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L166" s="5"/>
+      <c r="M166" s="5"/>
+      <c r="N166" s="5"/>
+      <c r="O166" s="5"/>
+      <c r="P166" s="6"/>
+    </row>
+    <row r="167" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B167" s="5"/>
+      <c r="C167" s="5"/>
+      <c r="D167" s="5"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="L167" s="5"/>
+      <c r="M167" s="5"/>
+      <c r="N167" s="5"/>
+      <c r="O167" s="5"/>
+      <c r="P167" s="6"/>
+    </row>
+    <row r="168" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B168" s="5"/>
+      <c r="C168" s="5"/>
+      <c r="D168" s="5"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="L168" s="5"/>
+      <c r="M168" s="5"/>
+      <c r="N168" s="5"/>
+      <c r="O168" s="5"/>
+      <c r="P168" s="6"/>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B169" s="10"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="10"/>
+      <c r="K169" s="10"/>
+      <c r="L169" s="10"/>
+      <c r="M169" s="10"/>
+      <c r="N169" s="10"/>
+      <c r="O169" s="10"/>
+      <c r="P169" s="11"/>
+    </row>
+    <row r="170" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B170" s="5"/>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="L170" s="5"/>
+      <c r="M170" s="5"/>
+      <c r="N170" s="5"/>
+      <c r="O170" s="5"/>
+      <c r="P170" s="6"/>
+    </row>
+    <row r="171" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B171" s="5"/>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="L171" s="5"/>
+      <c r="M171" s="5"/>
+      <c r="N171" s="5"/>
+      <c r="O171" s="5"/>
+      <c r="P171" s="6"/>
+    </row>
+    <row r="172" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B172" s="5"/>
+      <c r="C172" s="5"/>
+      <c r="D172" s="5"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="L172" s="5"/>
+      <c r="M172" s="5"/>
+      <c r="N172" s="5"/>
+      <c r="O172" s="5"/>
+      <c r="P172" s="6"/>
+    </row>
+    <row r="173" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B173" s="5"/>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="6"/>
+      <c r="K173" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="L173" s="5"/>
+      <c r="M173" s="5"/>
+      <c r="N173" s="5"/>
+      <c r="O173" s="5"/>
+      <c r="P173" s="6"/>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B174" s="10"/>
+      <c r="C174" s="10"/>
+      <c r="D174" s="10"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="10"/>
+      <c r="K174" s="10"/>
+      <c r="L174" s="10"/>
+      <c r="M174" s="10"/>
+      <c r="N174" s="10"/>
+      <c r="O174" s="10"/>
+      <c r="P174" s="11"/>
+    </row>
+    <row r="175" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B175" s="5"/>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="L175" s="5"/>
+      <c r="M175" s="5"/>
+      <c r="N175" s="5"/>
+      <c r="O175" s="5"/>
+      <c r="P175" s="6"/>
+    </row>
+    <row r="176" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B176" s="5"/>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="L176" s="5"/>
+      <c r="M176" s="5"/>
+      <c r="N176" s="5"/>
+      <c r="O176" s="5"/>
+      <c r="P176" s="6"/>
+    </row>
+    <row r="177" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B177" s="5"/>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="6"/>
+      <c r="F177" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L177" s="5"/>
+      <c r="M177" s="5"/>
+      <c r="N177" s="5"/>
+      <c r="O177" s="5"/>
+      <c r="P177" s="6"/>
+    </row>
+    <row r="178" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178" s="5"/>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="6"/>
+      <c r="F178" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="L178" s="5"/>
+      <c r="M178" s="5"/>
+      <c r="N178" s="5"/>
+      <c r="O178" s="5"/>
+      <c r="P178" s="6"/>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B179" s="10"/>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="10"/>
+      <c r="K179" s="10"/>
+      <c r="L179" s="10"/>
+      <c r="M179" s="10"/>
+      <c r="N179" s="10"/>
+      <c r="O179" s="10"/>
+      <c r="P179" s="11"/>
+    </row>
+    <row r="180" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B180" s="5"/>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="L180" s="5"/>
+      <c r="M180" s="5"/>
+      <c r="N180" s="5"/>
+      <c r="O180" s="5"/>
+      <c r="P180" s="6"/>
+    </row>
+    <row r="181" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B181" s="5"/>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="L181" s="5"/>
+      <c r="M181" s="5"/>
+      <c r="N181" s="5"/>
+      <c r="O181" s="5"/>
+      <c r="P181" s="6"/>
+    </row>
+    <row r="182" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B182" s="5"/>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="6"/>
+      <c r="F182" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L182" s="5"/>
+      <c r="M182" s="5"/>
+      <c r="N182" s="5"/>
+      <c r="O182" s="5"/>
+      <c r="P182" s="6"/>
+    </row>
+    <row r="183" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" s="5"/>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="6"/>
+      <c r="F183" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="L183" s="5"/>
+      <c r="M183" s="5"/>
+      <c r="N183" s="5"/>
+      <c r="O183" s="5"/>
+      <c r="P183" s="6"/>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A185" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="B185" s="49"/>
+      <c r="C185" s="49"/>
+      <c r="D185" s="49"/>
+      <c r="E185" s="49"/>
+      <c r="F185" s="49"/>
+      <c r="G185" s="49"/>
+      <c r="H185" s="49"/>
+      <c r="I185" s="49"/>
+      <c r="J185" s="49"/>
+      <c r="K185" s="49"/>
+      <c r="L185" s="49"/>
+      <c r="M185" s="49"/>
+      <c r="N185" s="49"/>
+      <c r="O185" s="49"/>
+      <c r="P185" s="49"/>
+    </row>
+    <row r="186" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="49"/>
+      <c r="B186" s="49"/>
+      <c r="C186" s="49"/>
+      <c r="D186" s="49"/>
+      <c r="E186" s="49"/>
+      <c r="F186" s="49"/>
+      <c r="G186" s="49"/>
+      <c r="H186" s="49"/>
+      <c r="I186" s="49"/>
+      <c r="J186" s="49"/>
+      <c r="K186" s="49"/>
+      <c r="L186" s="49"/>
+      <c r="M186" s="49"/>
+      <c r="N186" s="49"/>
+      <c r="O186" s="49"/>
+      <c r="P186" s="49"/>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A188" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B188" s="62"/>
+      <c r="C188" s="62"/>
+      <c r="D188" s="62"/>
+      <c r="E188" s="62"/>
+      <c r="F188" s="62"/>
+      <c r="G188" s="62"/>
+      <c r="H188" s="62"/>
+      <c r="I188" s="62"/>
+      <c r="J188" s="62"/>
+      <c r="K188" s="62"/>
+      <c r="L188" s="62"/>
+      <c r="M188" s="62"/>
+      <c r="N188" s="62"/>
+      <c r="O188" s="62"/>
+      <c r="P188" s="63"/>
+    </row>
+    <row r="189" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B189" s="5"/>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
+      <c r="H189" s="5"/>
+      <c r="I189" s="5"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="L189" s="5"/>
+      <c r="M189" s="5"/>
+      <c r="N189" s="5"/>
+      <c r="O189" s="5"/>
+      <c r="P189" s="6"/>
+    </row>
+    <row r="190" spans="1:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B190" s="5"/>
+      <c r="C190" s="5"/>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5"/>
+      <c r="G190" s="5"/>
+      <c r="H190" s="5"/>
+      <c r="I190" s="5"/>
+      <c r="J190" s="6"/>
+      <c r="K190" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L190" s="5"/>
+      <c r="M190" s="5"/>
+      <c r="N190" s="5"/>
+      <c r="O190" s="5"/>
+      <c r="P190" s="6"/>
+    </row>
+    <row r="191" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B191" s="5"/>
+      <c r="C191" s="5"/>
+      <c r="D191" s="5"/>
+      <c r="E191" s="6"/>
+      <c r="F191" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="L191" s="5"/>
+      <c r="M191" s="5"/>
+      <c r="N191" s="5"/>
+      <c r="O191" s="5"/>
+      <c r="P191" s="6"/>
+    </row>
+    <row r="192" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B192" s="5"/>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5"/>
+      <c r="E192" s="6"/>
+      <c r="F192" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L192" s="5"/>
+      <c r="M192" s="5"/>
+      <c r="N192" s="5"/>
+      <c r="O192" s="5"/>
+      <c r="P192" s="6"/>
+    </row>
+    <row r="193" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="61" t="s">
+        <v>208</v>
+      </c>
+      <c r="B193" s="62"/>
+      <c r="C193" s="62"/>
+      <c r="D193" s="62"/>
+      <c r="E193" s="62"/>
+      <c r="F193" s="62"/>
+      <c r="G193" s="62"/>
+      <c r="H193" s="62"/>
+      <c r="I193" s="62"/>
+      <c r="J193" s="62"/>
+      <c r="K193" s="62"/>
+      <c r="L193" s="62"/>
+      <c r="M193" s="62"/>
+      <c r="N193" s="62"/>
+      <c r="O193" s="62"/>
+      <c r="P193" s="63"/>
+    </row>
+    <row r="194" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B194" s="5"/>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="L194" s="5"/>
+      <c r="M194" s="5"/>
+      <c r="N194" s="5"/>
+      <c r="O194" s="5"/>
+      <c r="P194" s="6"/>
+    </row>
+    <row r="195" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B195" s="5"/>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L195" s="5"/>
+      <c r="M195" s="5"/>
+      <c r="N195" s="5"/>
+      <c r="O195" s="5"/>
+      <c r="P195" s="6"/>
+    </row>
+    <row r="196" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B196" s="5"/>
+      <c r="C196" s="5"/>
+      <c r="D196" s="5"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="L196" s="5"/>
+      <c r="M196" s="5"/>
+      <c r="N196" s="5"/>
+      <c r="O196" s="5"/>
+      <c r="P196" s="6"/>
+    </row>
+    <row r="197" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B197" s="5"/>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="L197" s="5"/>
+      <c r="M197" s="5"/>
+      <c r="N197" s="5"/>
+      <c r="O197" s="5"/>
+      <c r="P197" s="6"/>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A199" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B199" s="17"/>
+      <c r="C199" s="17"/>
+      <c r="D199" s="17"/>
+      <c r="E199" s="17"/>
+      <c r="F199" s="17"/>
+      <c r="G199" s="17"/>
+      <c r="H199" s="17"/>
+      <c r="I199" s="17"/>
+      <c r="J199" s="17"/>
+      <c r="K199" s="17"/>
+      <c r="L199" s="17"/>
+      <c r="M199" s="17"/>
+      <c r="N199" s="17"/>
+      <c r="O199" s="17"/>
+      <c r="P199" s="17"/>
+    </row>
+    <row r="200" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B200" s="15"/>
+      <c r="C200" s="15"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="15"/>
+      <c r="H200" s="15"/>
+      <c r="I200" s="15"/>
+      <c r="J200" s="15"/>
+      <c r="K200" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L200" s="15"/>
+      <c r="M200" s="15"/>
+      <c r="N200" s="15"/>
+      <c r="O200" s="15"/>
+      <c r="P200" s="15"/>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A201" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="B201" s="15"/>
+      <c r="C201" s="15"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="15"/>
+      <c r="I201" s="15"/>
+      <c r="J201" s="15"/>
+      <c r="K201" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L201" s="15"/>
+      <c r="M201" s="15"/>
+      <c r="N201" s="15"/>
+      <c r="O201" s="15"/>
+      <c r="P201" s="15"/>
+    </row>
+    <row r="202" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="64" t="s">
+        <v>219</v>
+      </c>
+      <c r="B202" s="65"/>
+      <c r="C202" s="65"/>
+      <c r="D202" s="65"/>
+      <c r="E202" s="65"/>
+      <c r="F202" s="65"/>
+      <c r="G202" s="65"/>
+      <c r="H202" s="65"/>
+      <c r="I202" s="65"/>
+      <c r="J202" s="65"/>
+      <c r="K202" s="65"/>
+      <c r="L202" s="65"/>
+      <c r="M202" s="65"/>
+      <c r="N202" s="65"/>
+      <c r="O202" s="65"/>
+      <c r="P202" s="66"/>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A203" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B203" s="15"/>
+      <c r="C203" s="15"/>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="15"/>
+      <c r="H203" s="15"/>
+      <c r="I203" s="15"/>
+      <c r="J203" s="15"/>
+      <c r="K203" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="L203" s="15"/>
+      <c r="M203" s="15"/>
+      <c r="N203" s="15"/>
+      <c r="O203" s="15"/>
+      <c r="P203" s="15"/>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A204" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="B204" s="15"/>
+      <c r="C204" s="15"/>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="15"/>
+      <c r="H204" s="15"/>
+      <c r="I204" s="15"/>
+      <c r="J204" s="15"/>
+      <c r="K204" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L204" s="15"/>
+      <c r="M204" s="15"/>
+      <c r="N204" s="15"/>
+      <c r="O204" s="15"/>
+      <c r="P204" s="15"/>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A205" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B205" s="15"/>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="15"/>
+      <c r="H205" s="15"/>
+      <c r="I205" s="15"/>
+      <c r="J205" s="15"/>
+      <c r="K205" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="L205" s="15"/>
+      <c r="M205" s="15"/>
+      <c r="N205" s="15"/>
+      <c r="O205" s="15"/>
+      <c r="P205" s="15"/>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A206" s="49"/>
+      <c r="B206" s="49"/>
+      <c r="C206" s="49"/>
+      <c r="D206" s="49"/>
+      <c r="E206" s="49"/>
+      <c r="F206" s="49"/>
+      <c r="G206" s="49"/>
+      <c r="H206" s="49"/>
+      <c r="I206" s="49"/>
+      <c r="J206" s="49"/>
+      <c r="K206" s="49"/>
+      <c r="L206" s="49"/>
+      <c r="M206" s="49"/>
+      <c r="N206" s="49"/>
+      <c r="O206" s="49"/>
+      <c r="P206" s="49"/>
+    </row>
+    <row r="207" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B207" s="15"/>
+      <c r="C207" s="15"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="15"/>
+      <c r="H207" s="15"/>
+      <c r="I207" s="15"/>
+      <c r="J207" s="15"/>
+      <c r="K207" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L207" s="15"/>
+      <c r="M207" s="15"/>
+      <c r="N207" s="15"/>
+      <c r="O207" s="15"/>
+      <c r="P207" s="15"/>
+    </row>
+    <row r="208" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B208" s="5"/>
+      <c r="C208" s="5"/>
+      <c r="D208" s="5"/>
+      <c r="E208" s="5"/>
+      <c r="F208" s="5"/>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="6"/>
+      <c r="K208" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L208" s="13"/>
+      <c r="M208" s="13"/>
+      <c r="N208" s="13"/>
+      <c r="O208" s="13"/>
+      <c r="P208" s="14"/>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A209" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B209" s="13"/>
+      <c r="C209" s="13"/>
+      <c r="D209" s="13"/>
+      <c r="E209" s="13"/>
+      <c r="F209" s="13"/>
+      <c r="G209" s="13"/>
+      <c r="H209" s="13"/>
+      <c r="I209" s="13"/>
+      <c r="J209" s="14"/>
+      <c r="K209" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L209" s="13"/>
+      <c r="M209" s="13"/>
+      <c r="N209" s="13"/>
+      <c r="O209" s="13"/>
+      <c r="P209" s="14"/>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A210" s="67" t="s">
+        <v>223</v>
+      </c>
+      <c r="B210" s="67"/>
+      <c r="C210" s="67"/>
+      <c r="D210" s="67"/>
+      <c r="E210" s="67"/>
+      <c r="F210" s="67"/>
+      <c r="G210" s="67"/>
+      <c r="H210" s="67"/>
+      <c r="I210" s="67"/>
+      <c r="J210" s="67"/>
+      <c r="K210" s="67"/>
+      <c r="L210" s="67"/>
+      <c r="M210" s="67"/>
+      <c r="N210" s="67"/>
+      <c r="O210" s="67"/>
+      <c r="P210" s="67"/>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A211" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B211" s="13"/>
+      <c r="C211" s="13"/>
+      <c r="D211" s="13"/>
+      <c r="E211" s="13"/>
+      <c r="F211" s="13"/>
+      <c r="G211" s="13"/>
+      <c r="H211" s="13"/>
+      <c r="I211" s="13"/>
+      <c r="J211" s="14"/>
+      <c r="K211" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L211" s="13"/>
+      <c r="M211" s="13"/>
+      <c r="N211" s="13"/>
+      <c r="O211" s="13"/>
+      <c r="P211" s="14"/>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A212" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B212" s="13"/>
+      <c r="C212" s="13"/>
+      <c r="D212" s="13"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="13"/>
+      <c r="G212" s="13"/>
+      <c r="H212" s="13"/>
+      <c r="I212" s="13"/>
+      <c r="J212" s="14"/>
+      <c r="K212" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L212" s="13"/>
+      <c r="M212" s="13"/>
+      <c r="N212" s="13"/>
+      <c r="O212" s="13"/>
+      <c r="P212" s="14"/>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A213" s="7"/>
+      <c r="B213" s="7"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
+      <c r="G213" s="7"/>
+      <c r="H213" s="7"/>
+      <c r="I213" s="7"/>
+      <c r="J213" s="7"/>
+      <c r="K213" s="7"/>
+      <c r="L213" s="7"/>
+      <c r="M213" s="7"/>
+      <c r="N213" s="7"/>
+      <c r="O213" s="7"/>
+      <c r="P213" s="7"/>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A214" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B214" s="13"/>
+      <c r="C214" s="13"/>
+      <c r="D214" s="13"/>
+      <c r="E214" s="13"/>
+      <c r="F214" s="13"/>
+      <c r="G214" s="13"/>
+      <c r="H214" s="13"/>
+      <c r="I214" s="13"/>
+      <c r="J214" s="14"/>
+      <c r="K214" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L214" s="13"/>
+      <c r="M214" s="13"/>
+      <c r="N214" s="13"/>
+      <c r="O214" s="13"/>
+      <c r="P214" s="14"/>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A215" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B215" s="13"/>
+      <c r="C215" s="13"/>
+      <c r="D215" s="13"/>
+      <c r="E215" s="13"/>
+      <c r="F215" s="13"/>
+      <c r="G215" s="13"/>
+      <c r="H215" s="13"/>
+      <c r="I215" s="13"/>
+      <c r="J215" s="14"/>
+      <c r="K215" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L215" s="13"/>
+      <c r="M215" s="13"/>
+      <c r="N215" s="13"/>
+      <c r="O215" s="13"/>
+      <c r="P215" s="14"/>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A216" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B216" s="13"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="13"/>
+      <c r="E216" s="13"/>
+      <c r="F216" s="13"/>
+      <c r="G216" s="13"/>
+      <c r="H216" s="13"/>
+      <c r="I216" s="13"/>
+      <c r="J216" s="14"/>
+      <c r="K216" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L216" s="13"/>
+      <c r="M216" s="13"/>
+      <c r="N216" s="13"/>
+      <c r="O216" s="13"/>
+      <c r="P216" s="14"/>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A217" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B217" s="13"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="13"/>
+      <c r="E217" s="13"/>
+      <c r="F217" s="13"/>
+      <c r="G217" s="13"/>
+      <c r="H217" s="13"/>
+      <c r="I217" s="13"/>
+      <c r="J217" s="14"/>
+      <c r="K217" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L217" s="13"/>
+      <c r="M217" s="13"/>
+      <c r="N217" s="13"/>
+      <c r="O217" s="13"/>
+      <c r="P217" s="14"/>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A218" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B218" s="13"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="13"/>
+      <c r="G218" s="13"/>
+      <c r="H218" s="13"/>
+      <c r="I218" s="13"/>
+      <c r="J218" s="14"/>
+      <c r="K218" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L218" s="13"/>
+      <c r="M218" s="13"/>
+      <c r="N218" s="13"/>
+      <c r="O218" s="13"/>
+      <c r="P218" s="14"/>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A219" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B219" s="13"/>
+      <c r="C219" s="13"/>
+      <c r="D219" s="13"/>
+      <c r="E219" s="13"/>
+      <c r="F219" s="13"/>
+      <c r="G219" s="13"/>
+      <c r="H219" s="13"/>
+      <c r="I219" s="13"/>
+      <c r="J219" s="14"/>
+      <c r="K219" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L219" s="13"/>
+      <c r="M219" s="13"/>
+      <c r="N219" s="13"/>
+      <c r="O219" s="13"/>
+      <c r="P219" s="14"/>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A221" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B221" s="28"/>
+      <c r="C221" s="28"/>
+      <c r="D221" s="28"/>
+      <c r="E221" s="28"/>
+      <c r="F221" s="28"/>
+      <c r="G221" s="28"/>
+      <c r="H221" s="28"/>
+      <c r="I221" s="28"/>
+      <c r="J221" s="28"/>
+      <c r="K221" s="28"/>
+      <c r="L221" s="28"/>
+      <c r="M221" s="28"/>
+      <c r="N221" s="28"/>
+      <c r="O221" s="28"/>
+      <c r="P221" s="29"/>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A222" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B222" s="13"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="13"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="13"/>
+      <c r="G222" s="13"/>
+      <c r="H222" s="13"/>
+      <c r="I222" s="13"/>
+      <c r="J222" s="14"/>
+      <c r="K222" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L222" s="13"/>
+      <c r="M222" s="13"/>
+      <c r="N222" s="13"/>
+      <c r="O222" s="13"/>
+      <c r="P222" s="14"/>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A223" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B223" s="13"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="13"/>
+      <c r="E223" s="13"/>
+      <c r="F223" s="13"/>
+      <c r="G223" s="13"/>
+      <c r="H223" s="13"/>
+      <c r="I223" s="13"/>
+      <c r="J223" s="14"/>
+      <c r="K223" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="L223" s="13"/>
+      <c r="M223" s="13"/>
+      <c r="N223" s="13"/>
+      <c r="O223" s="13"/>
+      <c r="P223" s="14"/>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A224" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="B224" s="68"/>
+      <c r="C224" s="68"/>
+      <c r="D224" s="68"/>
+      <c r="E224" s="68"/>
+      <c r="F224" s="68"/>
+      <c r="G224" s="68"/>
+      <c r="H224" s="68"/>
+      <c r="I224" s="68"/>
+      <c r="J224" s="68"/>
+      <c r="K224" s="68"/>
+      <c r="L224" s="68"/>
+      <c r="M224" s="68"/>
+      <c r="N224" s="68"/>
+      <c r="O224" s="68"/>
+      <c r="P224" s="68"/>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A225" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B225" s="13"/>
+      <c r="C225" s="13"/>
+      <c r="D225" s="13"/>
+      <c r="E225" s="13"/>
+      <c r="F225" s="13"/>
+      <c r="G225" s="13"/>
+      <c r="H225" s="13"/>
+      <c r="I225" s="13"/>
+      <c r="J225" s="14"/>
+      <c r="K225" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L225" s="13"/>
+      <c r="M225" s="13"/>
+      <c r="N225" s="13"/>
+      <c r="O225" s="13"/>
+      <c r="P225" s="14"/>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A226" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B226" s="13"/>
+      <c r="C226" s="13"/>
+      <c r="D226" s="13"/>
+      <c r="E226" s="13"/>
+      <c r="F226" s="13"/>
+      <c r="G226" s="13"/>
+      <c r="H226" s="13"/>
+      <c r="I226" s="13"/>
+      <c r="J226" s="14"/>
+      <c r="K226" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L226" s="13"/>
+      <c r="M226" s="13"/>
+      <c r="N226" s="13"/>
+      <c r="O226" s="13"/>
+      <c r="P226" s="14"/>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A227" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B227" s="13"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="13"/>
+      <c r="E227" s="13"/>
+      <c r="F227" s="13"/>
+      <c r="G227" s="13"/>
+      <c r="H227" s="13"/>
+      <c r="I227" s="13"/>
+      <c r="J227" s="14"/>
+      <c r="K227" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="L227" s="13"/>
+      <c r="M227" s="13"/>
+      <c r="N227" s="13"/>
+      <c r="O227" s="13"/>
+      <c r="P227" s="14"/>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A228" s="7"/>
+      <c r="B228" s="7"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="7"/>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7"/>
+      <c r="I228" s="7"/>
+      <c r="J228" s="7"/>
+      <c r="K228" s="7"/>
+      <c r="L228" s="7"/>
+      <c r="M228" s="7"/>
+      <c r="N228" s="7"/>
+      <c r="O228" s="7"/>
+      <c r="P228" s="7"/>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A229" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B229" s="13"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="13"/>
+      <c r="E229" s="13"/>
+      <c r="F229" s="13"/>
+      <c r="G229" s="13"/>
+      <c r="H229" s="13"/>
+      <c r="I229" s="13"/>
+      <c r="J229" s="14"/>
+      <c r="K229" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="L229" s="13"/>
+      <c r="M229" s="13"/>
+      <c r="N229" s="13"/>
+      <c r="O229" s="13"/>
+      <c r="P229" s="14"/>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A230" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B230" s="13"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="13"/>
+      <c r="G230" s="13"/>
+      <c r="H230" s="13"/>
+      <c r="I230" s="13"/>
+      <c r="J230" s="14"/>
+      <c r="K230" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="L230" s="13"/>
+      <c r="M230" s="13"/>
+      <c r="N230" s="13"/>
+      <c r="O230" s="13"/>
+      <c r="P230" s="14"/>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A231" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B231" s="13"/>
+      <c r="C231" s="13"/>
+      <c r="D231" s="13"/>
+      <c r="E231" s="13"/>
+      <c r="F231" s="13"/>
+      <c r="G231" s="13"/>
+      <c r="H231" s="13"/>
+      <c r="I231" s="13"/>
+      <c r="J231" s="14"/>
+      <c r="K231" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="L231" s="13"/>
+      <c r="M231" s="13"/>
+      <c r="N231" s="13"/>
+      <c r="O231" s="13"/>
+      <c r="P231" s="14"/>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A232" s="69" t="s">
+        <v>223</v>
+      </c>
+      <c r="B232" s="68"/>
+      <c r="C232" s="68"/>
+      <c r="D232" s="68"/>
+      <c r="E232" s="68"/>
+      <c r="F232" s="68"/>
+      <c r="G232" s="68"/>
+      <c r="H232" s="68"/>
+      <c r="I232" s="68"/>
+      <c r="J232" s="68"/>
+      <c r="K232" s="68"/>
+      <c r="L232" s="68"/>
+      <c r="M232" s="68"/>
+      <c r="N232" s="68"/>
+      <c r="O232" s="68"/>
+      <c r="P232" s="68"/>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A233" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B233" s="13"/>
+      <c r="C233" s="13"/>
+      <c r="D233" s="13"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="13"/>
+      <c r="G233" s="13"/>
+      <c r="H233" s="13"/>
+      <c r="I233" s="13"/>
+      <c r="J233" s="14"/>
+      <c r="K233" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="L233" s="13"/>
+      <c r="M233" s="13"/>
+      <c r="N233" s="13"/>
+      <c r="O233" s="13"/>
+      <c r="P233" s="14"/>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A234" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B234" s="13"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="13"/>
+      <c r="G234" s="13"/>
+      <c r="H234" s="13"/>
+      <c r="I234" s="13"/>
+      <c r="J234" s="14"/>
+      <c r="K234" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="L234" s="13"/>
+      <c r="M234" s="13"/>
+      <c r="N234" s="13"/>
+      <c r="O234" s="13"/>
+      <c r="P234" s="14"/>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A235" s="36"/>
+      <c r="B235" s="37"/>
+      <c r="C235" s="37"/>
+      <c r="D235" s="37"/>
+      <c r="E235" s="37"/>
+      <c r="F235" s="37"/>
+      <c r="G235" s="37"/>
+      <c r="H235" s="37"/>
+      <c r="I235" s="37"/>
+      <c r="J235" s="37"/>
+      <c r="K235" s="37"/>
+      <c r="L235" s="37"/>
+      <c r="M235" s="37"/>
+      <c r="N235" s="37"/>
+      <c r="O235" s="37"/>
+      <c r="P235" s="38"/>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A236" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B236" s="13"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="13"/>
+      <c r="G236" s="13"/>
+      <c r="H236" s="13"/>
+      <c r="I236" s="13"/>
+      <c r="J236" s="14"/>
+      <c r="K236" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="L236" s="13"/>
+      <c r="M236" s="13"/>
+      <c r="N236" s="13"/>
+      <c r="O236" s="13"/>
+      <c r="P236" s="14"/>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A237" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B237" s="13"/>
+      <c r="C237" s="13"/>
+      <c r="D237" s="13"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="13"/>
+      <c r="G237" s="13"/>
+      <c r="H237" s="13"/>
+      <c r="I237" s="13"/>
+      <c r="J237" s="14"/>
+      <c r="K237" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="L237" s="13"/>
+      <c r="M237" s="13"/>
+      <c r="N237" s="13"/>
+      <c r="O237" s="13"/>
+      <c r="P237" s="14"/>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A238" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B238" s="13"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="13"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="13"/>
+      <c r="G238" s="13"/>
+      <c r="H238" s="13"/>
+      <c r="I238" s="13"/>
+      <c r="J238" s="14"/>
+      <c r="K238" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L238" s="13"/>
+      <c r="M238" s="13"/>
+      <c r="N238" s="13"/>
+      <c r="O238" s="13"/>
+      <c r="P238" s="14"/>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A239" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239" s="13"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="13"/>
+      <c r="E239" s="13"/>
+      <c r="F239" s="13"/>
+      <c r="G239" s="13"/>
+      <c r="H239" s="13"/>
+      <c r="I239" s="13"/>
+      <c r="J239" s="14"/>
+      <c r="K239" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L239" s="13"/>
+      <c r="M239" s="13"/>
+      <c r="N239" s="13"/>
+      <c r="O239" s="13"/>
+      <c r="P239" s="14"/>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A240" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B240" s="13"/>
+      <c r="C240" s="13"/>
+      <c r="D240" s="13"/>
+      <c r="E240" s="13"/>
+      <c r="F240" s="13"/>
+      <c r="G240" s="13"/>
+      <c r="H240" s="13"/>
+      <c r="I240" s="13"/>
+      <c r="J240" s="14"/>
+      <c r="K240" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L240" s="13"/>
+      <c r="M240" s="13"/>
+      <c r="N240" s="13"/>
+      <c r="O240" s="13"/>
+      <c r="P240" s="14"/>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A241" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B241" s="13"/>
+      <c r="C241" s="13"/>
+      <c r="D241" s="13"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="13"/>
+      <c r="G241" s="13"/>
+      <c r="H241" s="13"/>
+      <c r="I241" s="13"/>
+      <c r="J241" s="14"/>
+      <c r="K241" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L241" s="13"/>
+      <c r="M241" s="13"/>
+      <c r="N241" s="13"/>
+      <c r="O241" s="13"/>
+      <c r="P241" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="405">
+    <mergeCell ref="A240:J240"/>
+    <mergeCell ref="K240:P240"/>
+    <mergeCell ref="A241:J241"/>
+    <mergeCell ref="K241:P241"/>
+    <mergeCell ref="A235:P235"/>
+    <mergeCell ref="A236:J236"/>
+    <mergeCell ref="K236:P236"/>
+    <mergeCell ref="A237:J237"/>
+    <mergeCell ref="K237:P237"/>
+    <mergeCell ref="A238:J238"/>
+    <mergeCell ref="K238:P238"/>
+    <mergeCell ref="A239:J239"/>
+    <mergeCell ref="K239:P239"/>
+    <mergeCell ref="A230:J230"/>
+    <mergeCell ref="K230:P230"/>
+    <mergeCell ref="K231:P231"/>
+    <mergeCell ref="A231:J231"/>
+    <mergeCell ref="A232:P232"/>
+    <mergeCell ref="A233:J233"/>
+    <mergeCell ref="K233:P233"/>
+    <mergeCell ref="K234:P234"/>
+    <mergeCell ref="A234:J234"/>
+    <mergeCell ref="A224:P224"/>
+    <mergeCell ref="A225:J225"/>
+    <mergeCell ref="K225:P225"/>
+    <mergeCell ref="K226:P226"/>
+    <mergeCell ref="A226:J226"/>
+    <mergeCell ref="A227:J227"/>
+    <mergeCell ref="K227:P227"/>
+    <mergeCell ref="A228:P228"/>
+    <mergeCell ref="A229:J229"/>
+    <mergeCell ref="K229:P229"/>
+    <mergeCell ref="K218:P218"/>
+    <mergeCell ref="K219:P219"/>
+    <mergeCell ref="A219:J219"/>
+    <mergeCell ref="A218:J218"/>
+    <mergeCell ref="A221:P221"/>
+    <mergeCell ref="A222:J222"/>
+    <mergeCell ref="K222:P222"/>
+    <mergeCell ref="A223:J223"/>
+    <mergeCell ref="K223:P223"/>
+    <mergeCell ref="A213:P213"/>
+    <mergeCell ref="A214:J214"/>
+    <mergeCell ref="K214:P214"/>
+    <mergeCell ref="K215:P215"/>
+    <mergeCell ref="A215:J215"/>
+    <mergeCell ref="A216:J216"/>
+    <mergeCell ref="K216:P216"/>
+    <mergeCell ref="A217:J217"/>
+    <mergeCell ref="K217:P217"/>
+    <mergeCell ref="A208:J208"/>
+    <mergeCell ref="K208:P208"/>
+    <mergeCell ref="A209:J209"/>
+    <mergeCell ref="K209:P209"/>
+    <mergeCell ref="A210:P210"/>
+    <mergeCell ref="A206:P206"/>
+    <mergeCell ref="A211:J211"/>
+    <mergeCell ref="K211:P211"/>
+    <mergeCell ref="K212:P212"/>
+    <mergeCell ref="A212:J212"/>
+    <mergeCell ref="A203:J203"/>
+    <mergeCell ref="K203:P203"/>
+    <mergeCell ref="A204:J204"/>
+    <mergeCell ref="K204:P204"/>
+    <mergeCell ref="A205:J205"/>
+    <mergeCell ref="K205:P205"/>
+    <mergeCell ref="A202:P202"/>
+    <mergeCell ref="A207:J207"/>
+    <mergeCell ref="K207:P207"/>
+    <mergeCell ref="A197:E197"/>
+    <mergeCell ref="F197:J197"/>
+    <mergeCell ref="K197:P197"/>
+    <mergeCell ref="A199:P199"/>
+    <mergeCell ref="A200:J200"/>
+    <mergeCell ref="K200:P200"/>
+    <mergeCell ref="A201:J201"/>
+    <mergeCell ref="K201:P201"/>
+    <mergeCell ref="A192:E192"/>
+    <mergeCell ref="F192:J192"/>
+    <mergeCell ref="K192:P192"/>
+    <mergeCell ref="A193:P193"/>
+    <mergeCell ref="A194:J194"/>
+    <mergeCell ref="K194:P194"/>
+    <mergeCell ref="A195:J195"/>
+    <mergeCell ref="K195:P195"/>
+    <mergeCell ref="A196:E196"/>
+    <mergeCell ref="F196:J196"/>
+    <mergeCell ref="K196:P196"/>
+    <mergeCell ref="A185:P186"/>
+    <mergeCell ref="A188:P188"/>
+    <mergeCell ref="A189:J189"/>
+    <mergeCell ref="K189:P189"/>
+    <mergeCell ref="A190:J190"/>
+    <mergeCell ref="K190:P190"/>
+    <mergeCell ref="A191:E191"/>
+    <mergeCell ref="F191:J191"/>
+    <mergeCell ref="K191:P191"/>
+    <mergeCell ref="A179:P179"/>
+    <mergeCell ref="A180:J180"/>
+    <mergeCell ref="K180:P180"/>
+    <mergeCell ref="A181:J181"/>
+    <mergeCell ref="K181:P181"/>
+    <mergeCell ref="A182:E182"/>
+    <mergeCell ref="F182:J182"/>
+    <mergeCell ref="K182:P182"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="F183:J183"/>
+    <mergeCell ref="K183:P183"/>
+    <mergeCell ref="A174:P174"/>
+    <mergeCell ref="A175:J175"/>
+    <mergeCell ref="K175:P175"/>
+    <mergeCell ref="A176:J176"/>
+    <mergeCell ref="K176:P176"/>
+    <mergeCell ref="A177:E177"/>
+    <mergeCell ref="F177:J177"/>
+    <mergeCell ref="K177:P177"/>
+    <mergeCell ref="A178:E178"/>
+    <mergeCell ref="F178:J178"/>
+    <mergeCell ref="K178:P178"/>
+    <mergeCell ref="A170:J170"/>
+    <mergeCell ref="K170:P170"/>
+    <mergeCell ref="A171:J171"/>
+    <mergeCell ref="K171:P171"/>
+    <mergeCell ref="A172:E172"/>
+    <mergeCell ref="F172:J172"/>
+    <mergeCell ref="K172:P172"/>
+    <mergeCell ref="A173:E173"/>
+    <mergeCell ref="F173:J173"/>
+    <mergeCell ref="K173:P173"/>
+    <mergeCell ref="A166:J166"/>
+    <mergeCell ref="K166:P166"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="F167:J167"/>
+    <mergeCell ref="K167:P167"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="F168:J168"/>
+    <mergeCell ref="K168:P168"/>
+    <mergeCell ref="A169:P169"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="F162:J162"/>
+    <mergeCell ref="K162:P162"/>
+    <mergeCell ref="K163:P163"/>
+    <mergeCell ref="F163:J163"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A164:P164"/>
+    <mergeCell ref="A165:J165"/>
+    <mergeCell ref="K165:P165"/>
+    <mergeCell ref="K158:P158"/>
+    <mergeCell ref="F158:J158"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A159:P159"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="F160:J160"/>
+    <mergeCell ref="K160:P160"/>
+    <mergeCell ref="K161:P161"/>
+    <mergeCell ref="A161:J161"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:P11"/>
+    <mergeCell ref="A13:P13"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="A16:P16"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A156:J156"/>
+    <mergeCell ref="K156:P156"/>
+    <mergeCell ref="A157:J157"/>
+    <mergeCell ref="K157:P157"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:P24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:P25"/>
+    <mergeCell ref="I26:P26"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A18:P18"/>
+    <mergeCell ref="A19:P19"/>
+    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A22:P22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:P23"/>
+    <mergeCell ref="A32:P32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:P33"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="I34:P34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="I35:P35"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="I31:P31"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="I40:P40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="I41:P41"/>
+    <mergeCell ref="A43:H43"/>
+    <mergeCell ref="I43:P43"/>
+    <mergeCell ref="A42:P42"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="I36:P36"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="I38:P38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="I39:P39"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="I49:P49"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="I51:P51"/>
+    <mergeCell ref="A52:H52"/>
+    <mergeCell ref="I52:P52"/>
+    <mergeCell ref="A45:P45"/>
+    <mergeCell ref="A46:H46"/>
+    <mergeCell ref="I46:P46"/>
+    <mergeCell ref="A47:H47"/>
+    <mergeCell ref="I47:P47"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="I48:P48"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="I57:P57"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="I58:P58"/>
+    <mergeCell ref="A59:H59"/>
+    <mergeCell ref="I59:P59"/>
+    <mergeCell ref="A53:H53"/>
+    <mergeCell ref="I53:P53"/>
+    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="I54:P54"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="I56:P56"/>
+    <mergeCell ref="A71:H71"/>
+    <mergeCell ref="I71:P71"/>
+    <mergeCell ref="A64:H64"/>
+    <mergeCell ref="I64:P64"/>
+    <mergeCell ref="A66:H66"/>
+    <mergeCell ref="I66:P66"/>
+    <mergeCell ref="A67:H67"/>
+    <mergeCell ref="I67:P67"/>
+    <mergeCell ref="A61:H61"/>
+    <mergeCell ref="I61:P61"/>
+    <mergeCell ref="A62:H62"/>
+    <mergeCell ref="I62:P62"/>
+    <mergeCell ref="A63:H63"/>
+    <mergeCell ref="I63:P63"/>
+    <mergeCell ref="A79:H79"/>
+    <mergeCell ref="I79:P79"/>
+    <mergeCell ref="A65:P65"/>
+    <mergeCell ref="A70:P70"/>
+    <mergeCell ref="A75:P75"/>
+    <mergeCell ref="A81:H81"/>
+    <mergeCell ref="I81:P81"/>
+    <mergeCell ref="A80:P80"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="I76:P76"/>
+    <mergeCell ref="A77:H77"/>
+    <mergeCell ref="I77:P77"/>
+    <mergeCell ref="A78:H78"/>
+    <mergeCell ref="I78:P78"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="I72:P72"/>
+    <mergeCell ref="A73:H73"/>
+    <mergeCell ref="I73:P73"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="I74:P74"/>
+    <mergeCell ref="A68:H68"/>
+    <mergeCell ref="I68:P68"/>
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="I69:P69"/>
+    <mergeCell ref="A89:H89"/>
+    <mergeCell ref="I89:P89"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="I90:P90"/>
+    <mergeCell ref="A92:P92"/>
+    <mergeCell ref="A83:P83"/>
+    <mergeCell ref="A84:H84"/>
+    <mergeCell ref="I84:P84"/>
+    <mergeCell ref="A85:P85"/>
+    <mergeCell ref="A87:P87"/>
+    <mergeCell ref="A88:H88"/>
+    <mergeCell ref="I88:P88"/>
+    <mergeCell ref="A97:P97"/>
+    <mergeCell ref="A99:P99"/>
+    <mergeCell ref="A100:P100"/>
+    <mergeCell ref="F101:J101"/>
+    <mergeCell ref="K101:P101"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="I93:P93"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="I94:P94"/>
+    <mergeCell ref="A95:H95"/>
+    <mergeCell ref="I95:P95"/>
+    <mergeCell ref="F104:J104"/>
+    <mergeCell ref="K104:P104"/>
+    <mergeCell ref="A103:E104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="F105:J105"/>
+    <mergeCell ref="K105:P105"/>
+    <mergeCell ref="F102:J102"/>
+    <mergeCell ref="K102:P102"/>
+    <mergeCell ref="A101:E102"/>
+    <mergeCell ref="F103:J103"/>
+    <mergeCell ref="K103:P103"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="F109:J109"/>
+    <mergeCell ref="K109:P109"/>
+    <mergeCell ref="A110:J110"/>
+    <mergeCell ref="K110:P110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="F111:J111"/>
+    <mergeCell ref="K111:P111"/>
+    <mergeCell ref="A106:J106"/>
+    <mergeCell ref="K106:P106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="F107:J107"/>
+    <mergeCell ref="K107:P107"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="F108:J108"/>
+    <mergeCell ref="K108:P108"/>
+    <mergeCell ref="A114:J114"/>
+    <mergeCell ref="K114:P114"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="F115:J115"/>
+    <mergeCell ref="K115:P115"/>
+    <mergeCell ref="K116:P116"/>
+    <mergeCell ref="F116:J116"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="F112:J112"/>
+    <mergeCell ref="K112:P112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="F113:J113"/>
+    <mergeCell ref="K113:P113"/>
+    <mergeCell ref="A123:E123"/>
+    <mergeCell ref="F123:J123"/>
+    <mergeCell ref="K123:P123"/>
+    <mergeCell ref="K124:P124"/>
+    <mergeCell ref="F124:J124"/>
+    <mergeCell ref="A124:E124"/>
+    <mergeCell ref="A118:P118"/>
+    <mergeCell ref="A120:P120"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="F121:J121"/>
+    <mergeCell ref="K121:P121"/>
+    <mergeCell ref="A122:J122"/>
+    <mergeCell ref="K122:P122"/>
+    <mergeCell ref="D130:F130"/>
+    <mergeCell ref="G130:I130"/>
+    <mergeCell ref="J130:L130"/>
+    <mergeCell ref="M130:P130"/>
+    <mergeCell ref="D131:F131"/>
+    <mergeCell ref="G131:I131"/>
+    <mergeCell ref="J131:L131"/>
+    <mergeCell ref="A126:P128"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="A134:P134"/>
+    <mergeCell ref="A135:K135"/>
+    <mergeCell ref="L135:P135"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="F136:J136"/>
+    <mergeCell ref="K136:P136"/>
+    <mergeCell ref="M131:P131"/>
+    <mergeCell ref="M132:P132"/>
+    <mergeCell ref="J132:L132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="D132:F132"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="F140:J140"/>
+    <mergeCell ref="K140:P140"/>
+    <mergeCell ref="A141:E141"/>
+    <mergeCell ref="F141:J141"/>
+    <mergeCell ref="K141:P141"/>
+    <mergeCell ref="A137:P137"/>
+    <mergeCell ref="A138:E138"/>
+    <mergeCell ref="F138:J138"/>
+    <mergeCell ref="K138:P138"/>
+    <mergeCell ref="A139:J139"/>
+    <mergeCell ref="K139:P139"/>
+    <mergeCell ref="A145:E145"/>
+    <mergeCell ref="F145:J145"/>
+    <mergeCell ref="K145:P145"/>
+    <mergeCell ref="K146:P146"/>
+    <mergeCell ref="F146:J146"/>
+    <mergeCell ref="A146:E146"/>
+    <mergeCell ref="A142:P142"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="F143:J143"/>
+    <mergeCell ref="K143:P143"/>
+    <mergeCell ref="A144:J144"/>
+    <mergeCell ref="K144:P144"/>
+    <mergeCell ref="K151:P151"/>
+    <mergeCell ref="F151:J151"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="A153:P153"/>
+    <mergeCell ref="A155:P155"/>
+    <mergeCell ref="A147:P147"/>
+    <mergeCell ref="A148:J148"/>
+    <mergeCell ref="A149:J149"/>
+    <mergeCell ref="K149:P149"/>
+    <mergeCell ref="K148:P148"/>
+    <mergeCell ref="A150:E150"/>
+    <mergeCell ref="F150:J150"/>
+    <mergeCell ref="K150:P150"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>